--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3704.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3704.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.337201833561961</v>
+        <v>1.990137338638306</v>
       </c>
       <c r="B1">
-        <v>2.644127276888349</v>
+        <v>5.348728179931641</v>
       </c>
       <c r="C1">
-        <v>7.187781891137244</v>
+        <v>2.293470859527588</v>
       </c>
       <c r="D1">
-        <v>2.104967595222419</v>
+        <v>1.367118835449219</v>
       </c>
       <c r="E1">
-        <v>1.035718678045704</v>
+        <v>1.372858762741089</v>
       </c>
     </row>
   </sheetData>
